--- a/2020项目对接/09-15 暖哇科技/产品配置表.xlsx
+++ b/2020项目对接/09-15 暖哇科技/产品配置表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>重疾绿通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖哇-国任重疾三项服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I21AI5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,9 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -461,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -486,10 +497,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -497,24 +508,24 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -522,24 +533,24 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -547,31 +558,31 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -579,21 +590,48 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A2:A4"/>
